--- a/data/censos_ICA/Censo_ICA_Bovinos_2023.xlsx
+++ b/data/censos_ICA/Censo_ICA_Bovinos_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pob_municipios_colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604AC5C-389F-4BF9-962B-F19D21E31266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BC9A2-A48E-4A57-9AC1-B12C3CD81DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E861A1B8-6DF0-456E-8896-BF25E025C949}"/>
   </bookViews>
@@ -6978,11 +6978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A0F293-E446-4517-8AD1-859953542050}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R1122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -13697,7 +13696,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -13856,7 +13855,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -13909,7 +13908,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -14227,7 +14226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -14492,7 +14491,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -14545,7 +14544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -14916,7 +14915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -15075,7 +15074,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -15287,7 +15286,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -15393,7 +15392,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>151</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -15499,7 +15498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>151</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -15658,7 +15657,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -15711,7 +15710,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>151</v>
       </c>
@@ -15923,7 +15922,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>151</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>151</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>151</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>151</v>
       </c>
@@ -16294,7 +16293,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>151</v>
       </c>
@@ -16347,7 +16346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>151</v>
       </c>
@@ -16400,7 +16399,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>151</v>
       </c>
@@ -16453,7 +16452,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>151</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>151</v>
       </c>
@@ -16559,7 +16558,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>151</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>151</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>151</v>
       </c>
@@ -16718,7 +16717,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>151</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>151</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>151</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>151</v>
       </c>
@@ -16930,7 +16929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>151</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>151</v>
       </c>
@@ -17036,7 +17035,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>151</v>
       </c>
@@ -17089,7 +17088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>151</v>
       </c>
@@ -17142,7 +17141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>151</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>151</v>
       </c>
@@ -17248,7 +17247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>151</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>151</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>151</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -17460,7 +17459,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -17513,7 +17512,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -17619,7 +17618,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>198</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>198</v>
       </c>
@@ -17831,7 +17830,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>198</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>198</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>198</v>
       </c>
@@ -17990,7 +17989,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -18043,7 +18042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>198</v>
       </c>
@@ -18149,7 +18148,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>198</v>
       </c>
@@ -18202,7 +18201,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>198</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>198</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>198</v>
       </c>
@@ -18361,7 +18360,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>198</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>198</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>198</v>
       </c>
@@ -18520,7 +18519,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>198</v>
       </c>
@@ -18573,7 +18572,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>198</v>
       </c>
@@ -18626,7 +18625,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>198</v>
       </c>
@@ -18679,7 +18678,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>198</v>
       </c>
@@ -18732,7 +18731,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>198</v>
       </c>
@@ -18785,7 +18784,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>198</v>
       </c>
@@ -18838,7 +18837,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>198</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>198</v>
       </c>
@@ -18944,7 +18943,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>198</v>
       </c>
@@ -18997,7 +18996,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>198</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>198</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>198</v>
       </c>
@@ -19156,7 +19155,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>198</v>
       </c>
@@ -19209,7 +19208,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>198</v>
       </c>
@@ -19262,7 +19261,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>198</v>
       </c>
@@ -19315,7 +19314,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>198</v>
       </c>
@@ -19368,7 +19367,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>198</v>
       </c>
@@ -19421,7 +19420,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>198</v>
       </c>
@@ -19474,7 +19473,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>198</v>
       </c>
@@ -19527,7 +19526,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>198</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>198</v>
       </c>
@@ -19633,7 +19632,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>198</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>198</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>198</v>
       </c>
@@ -19792,7 +19791,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>198</v>
       </c>
@@ -19845,7 +19844,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>198</v>
       </c>
@@ -19898,7 +19897,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>198</v>
       </c>
@@ -19951,7 +19950,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>198</v>
       </c>
@@ -20004,7 +20003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>198</v>
       </c>
@@ -20057,7 +20056,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>198</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>198</v>
       </c>
@@ -20163,7 +20162,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>198</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>198</v>
       </c>
@@ -20269,7 +20268,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>198</v>
       </c>
@@ -20322,7 +20321,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>198</v>
       </c>
@@ -20375,7 +20374,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>198</v>
       </c>
@@ -20428,7 +20427,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>198</v>
       </c>
@@ -20481,7 +20480,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>198</v>
       </c>
@@ -20534,7 +20533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>198</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>198</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>198</v>
       </c>
@@ -20693,7 +20692,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>198</v>
       </c>
@@ -20746,7 +20745,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>198</v>
       </c>
@@ -20799,7 +20798,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>198</v>
       </c>
@@ -20852,7 +20851,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>198</v>
       </c>
@@ -20905,7 +20904,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>198</v>
       </c>
@@ -20958,7 +20957,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>198</v>
       </c>
@@ -21011,7 +21010,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>198</v>
       </c>
@@ -21064,7 +21063,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>198</v>
       </c>
@@ -21117,7 +21116,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>198</v>
       </c>
@@ -21170,7 +21169,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>198</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>198</v>
       </c>
@@ -21276,7 +21275,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>198</v>
       </c>
@@ -21329,7 +21328,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>198</v>
       </c>
@@ -21382,7 +21381,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>198</v>
       </c>
@@ -21435,7 +21434,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>198</v>
       </c>
@@ -21488,7 +21487,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>198</v>
       </c>
@@ -21541,7 +21540,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>198</v>
       </c>
@@ -21594,7 +21593,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>198</v>
       </c>
@@ -21647,7 +21646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>198</v>
       </c>
@@ -21700,7 +21699,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>198</v>
       </c>
@@ -21753,7 +21752,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>198</v>
       </c>
@@ -21806,7 +21805,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>198</v>
       </c>
@@ -21859,7 +21858,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>198</v>
       </c>
@@ -21912,7 +21911,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>198</v>
       </c>
@@ -21965,7 +21964,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>198</v>
       </c>
@@ -22018,7 +22017,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>198</v>
       </c>
@@ -22071,7 +22070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>198</v>
       </c>
@@ -22124,7 +22123,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>198</v>
       </c>
@@ -22177,7 +22176,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>198</v>
       </c>
@@ -22230,7 +22229,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>198</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>198</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>198</v>
       </c>
@@ -22389,7 +22388,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>198</v>
       </c>
@@ -22442,7 +22441,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>198</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>198</v>
       </c>
@@ -22548,7 +22547,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>198</v>
       </c>
@@ -22601,7 +22600,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>198</v>
       </c>
@@ -22654,7 +22653,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>198</v>
       </c>
@@ -22707,7 +22706,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>198</v>
       </c>
@@ -22760,7 +22759,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>198</v>
       </c>
@@ -22813,7 +22812,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>198</v>
       </c>
@@ -22866,7 +22865,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>198</v>
       </c>
@@ -22919,7 +22918,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>198</v>
       </c>
@@ -22972,7 +22971,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>198</v>
       </c>
@@ -23025,7 +23024,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>198</v>
       </c>
@@ -23078,7 +23077,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>198</v>
       </c>
@@ -23131,7 +23130,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>198</v>
       </c>
@@ -23184,7 +23183,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>198</v>
       </c>
@@ -23237,7 +23236,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>198</v>
       </c>
@@ -23290,7 +23289,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>198</v>
       </c>
@@ -23343,7 +23342,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>198</v>
       </c>
@@ -23396,7 +23395,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>198</v>
       </c>
@@ -23449,7 +23448,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>198</v>
       </c>
@@ -23502,7 +23501,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -23555,7 +23554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>198</v>
       </c>
@@ -23608,7 +23607,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>198</v>
       </c>
@@ -23661,7 +23660,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>198</v>
       </c>
@@ -23714,7 +23713,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>198</v>
       </c>
@@ -23767,7 +23766,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>198</v>
       </c>
@@ -23820,7 +23819,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>198</v>
       </c>
@@ -23873,7 +23872,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>198</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -23979,7 +23978,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>28</v>
       </c>
@@ -24032,7 +24031,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>28</v>
       </c>
@@ -24085,7 +24084,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>28</v>
       </c>
@@ -24138,7 +24137,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>28</v>
       </c>
@@ -24191,7 +24190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>28</v>
       </c>
@@ -24244,7 +24243,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>28</v>
       </c>
@@ -24297,7 +24296,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>28</v>
       </c>
@@ -24350,7 +24349,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>28</v>
       </c>
@@ -24403,7 +24402,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>28</v>
       </c>
@@ -24456,7 +24455,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -24509,7 +24508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -24562,7 +24561,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>28</v>
       </c>
@@ -24615,7 +24614,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -24668,7 +24667,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -24721,7 +24720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>28</v>
       </c>
@@ -24774,7 +24773,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -24827,7 +24826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>28</v>
       </c>
@@ -24880,7 +24879,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>28</v>
       </c>
@@ -24933,7 +24932,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>28</v>
       </c>
@@ -24986,7 +24985,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>28</v>
       </c>
@@ -25039,7 +25038,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>28</v>
       </c>
@@ -25092,7 +25091,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>28</v>
       </c>
@@ -25145,7 +25144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -25198,7 +25197,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>28</v>
       </c>
@@ -25251,7 +25250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>28</v>
       </c>
@@ -25304,7 +25303,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>28</v>
       </c>
@@ -25357,7 +25356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -25410,7 +25409,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>345</v>
       </c>
@@ -25463,7 +25462,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>345</v>
       </c>
@@ -25516,7 +25515,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>345</v>
       </c>
@@ -25569,7 +25568,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>345</v>
       </c>
@@ -25622,7 +25621,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>345</v>
       </c>
@@ -25675,7 +25674,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>345</v>
       </c>
@@ -25728,7 +25727,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>345</v>
       </c>
@@ -25781,7 +25780,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>345</v>
       </c>
@@ -25834,7 +25833,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>345</v>
       </c>
@@ -25887,7 +25886,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>345</v>
       </c>
@@ -25940,7 +25939,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>345</v>
       </c>
@@ -25993,7 +25992,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>345</v>
       </c>
@@ -26046,7 +26045,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>345</v>
       </c>
@@ -26099,7 +26098,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>345</v>
       </c>
@@ -26152,7 +26151,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>345</v>
       </c>
@@ -26205,7 +26204,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -26258,7 +26257,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>361</v>
       </c>
@@ -26311,7 +26310,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>361</v>
       </c>
@@ -26364,7 +26363,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>361</v>
       </c>
@@ -26417,7 +26416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>361</v>
       </c>
@@ -26470,7 +26469,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>361</v>
       </c>
@@ -26523,7 +26522,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>361</v>
       </c>
@@ -26576,7 +26575,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>361</v>
       </c>
@@ -26629,7 +26628,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>361</v>
       </c>
@@ -26682,7 +26681,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>361</v>
       </c>
@@ -26735,7 +26734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>361</v>
       </c>
@@ -26788,7 +26787,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>361</v>
       </c>
@@ -26841,7 +26840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>361</v>
       </c>
@@ -26894,7 +26893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>361</v>
       </c>
@@ -26947,7 +26946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>361</v>
       </c>
@@ -27000,7 +26999,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>361</v>
       </c>
@@ -27053,7 +27052,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>361</v>
       </c>
@@ -27106,7 +27105,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>361</v>
       </c>
@@ -27159,7 +27158,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>361</v>
       </c>
@@ -27212,7 +27211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>361</v>
       </c>
@@ -27265,7 +27264,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>361</v>
       </c>
@@ -27318,7 +27317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>361</v>
       </c>
@@ -27371,7 +27370,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>361</v>
       </c>
@@ -27424,7 +27423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>361</v>
       </c>
@@ -27477,7 +27476,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>361</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>361</v>
       </c>
@@ -27583,7 +27582,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>361</v>
       </c>
@@ -27636,7 +27635,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>361</v>
       </c>
@@ -27689,7 +27688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>361</v>
       </c>
@@ -27742,7 +27741,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -27795,7 +27794,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>361</v>
       </c>
@@ -27848,7 +27847,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>361</v>
       </c>
@@ -27901,7 +27900,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>361</v>
       </c>
@@ -27954,7 +27953,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>361</v>
       </c>
@@ -28007,7 +28006,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>361</v>
       </c>
@@ -28060,7 +28059,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>361</v>
       </c>
@@ -28113,7 +28112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>361</v>
       </c>
@@ -28166,7 +28165,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>361</v>
       </c>
@@ -28219,7 +28218,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>361</v>
       </c>
@@ -28272,7 +28271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>361</v>
       </c>
@@ -28325,7 +28324,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>361</v>
       </c>
@@ -28378,7 +28377,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>361</v>
       </c>
@@ -28431,7 +28430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>398</v>
       </c>
@@ -28484,7 +28483,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>398</v>
       </c>
@@ -28537,7 +28536,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>398</v>
       </c>
@@ -28590,7 +28589,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>398</v>
       </c>
@@ -28643,7 +28642,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>398</v>
       </c>
@@ -28696,7 +28695,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>398</v>
       </c>
@@ -28749,7 +28748,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>398</v>
       </c>
@@ -28802,7 +28801,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>398</v>
       </c>
@@ -28855,7 +28854,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>398</v>
       </c>
@@ -28908,7 +28907,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>398</v>
       </c>
@@ -28961,7 +28960,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>398</v>
       </c>
@@ -29014,7 +29013,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>398</v>
       </c>
@@ -29067,7 +29066,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>398</v>
       </c>
@@ -29120,7 +29119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>398</v>
       </c>
@@ -29173,7 +29172,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>398</v>
       </c>
@@ -29226,7 +29225,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>398</v>
       </c>
@@ -29279,7 +29278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>398</v>
       </c>
@@ -29332,7 +29331,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>398</v>
       </c>
@@ -29385,7 +29384,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>398</v>
       </c>
@@ -29438,7 +29437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>398</v>
       </c>
@@ -29491,7 +29490,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>398</v>
       </c>
@@ -29544,7 +29543,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>398</v>
       </c>
@@ -29597,7 +29596,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>398</v>
       </c>
@@ -29650,7 +29649,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>398</v>
       </c>
@@ -29703,7 +29702,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>398</v>
       </c>
@@ -29756,7 +29755,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>162</v>
       </c>
@@ -29809,7 +29808,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>162</v>
       </c>
@@ -29862,7 +29861,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>162</v>
       </c>
@@ -29915,7 +29914,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>162</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>162</v>
       </c>
@@ -30021,7 +30020,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>162</v>
       </c>
@@ -30074,7 +30073,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>162</v>
       </c>
@@ -30127,7 +30126,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>162</v>
       </c>
@@ -30180,7 +30179,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>162</v>
       </c>
@@ -30233,7 +30232,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>162</v>
       </c>
@@ -30286,7 +30285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>162</v>
       </c>
@@ -30339,7 +30338,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>162</v>
       </c>
@@ -30392,7 +30391,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>162</v>
       </c>
@@ -30445,7 +30444,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>162</v>
       </c>
@@ -30498,7 +30497,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>162</v>
       </c>
@@ -30551,7 +30550,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>162</v>
       </c>
@@ -30604,7 +30603,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>162</v>
       </c>
@@ -30657,7 +30656,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>162</v>
       </c>
@@ -30710,7 +30709,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>162</v>
       </c>
@@ -30763,7 +30762,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>162</v>
       </c>
@@ -30816,7 +30815,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>162</v>
       </c>
@@ -30869,7 +30868,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>162</v>
       </c>
@@ -30922,7 +30921,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>162</v>
       </c>
@@ -30975,7 +30974,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>162</v>
       </c>
@@ -31028,7 +31027,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>162</v>
       </c>
@@ -31081,7 +31080,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>162</v>
       </c>
@@ -31134,7 +31133,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>162</v>
       </c>
@@ -31187,7 +31186,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>162</v>
       </c>
@@ -31240,7 +31239,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>162</v>
       </c>
@@ -31293,7 +31292,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>162</v>
       </c>
@@ -31346,7 +31345,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>452</v>
       </c>
@@ -31399,7 +31398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>452</v>
       </c>
@@ -31452,7 +31451,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>452</v>
       </c>
@@ -31505,7 +31504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>452</v>
       </c>
@@ -31558,7 +31557,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>452</v>
       </c>
@@ -31611,7 +31610,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>452</v>
       </c>
@@ -31664,7 +31663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>452</v>
       </c>
@@ -31717,7 +31716,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>452</v>
       </c>
@@ -31770,7 +31769,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>452</v>
       </c>
@@ -31823,7 +31822,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>452</v>
       </c>
@@ -31876,7 +31875,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>452</v>
       </c>
@@ -31929,7 +31928,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="471" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>452</v>
       </c>
@@ -31982,7 +31981,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="472" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>452</v>
       </c>
@@ -32035,7 +32034,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="473" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>452</v>
       </c>
@@ -32088,7 +32087,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="474" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>452</v>
       </c>
@@ -32141,7 +32140,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="475" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>452</v>
       </c>
@@ -32194,7 +32193,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="476" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>452</v>
       </c>
@@ -32247,7 +32246,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="477" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>452</v>
       </c>
@@ -32300,7 +32299,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="478" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>452</v>
       </c>
@@ -32353,7 +32352,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="479" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>452</v>
       </c>
@@ -32406,7 +32405,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="480" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>452</v>
       </c>
@@ -32459,7 +32458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>452</v>
       </c>
@@ -32512,7 +32511,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>452</v>
       </c>
@@ -32565,7 +32564,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>452</v>
       </c>
@@ -32618,7 +32617,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>452</v>
       </c>
@@ -32671,7 +32670,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>452</v>
       </c>
@@ -32724,7 +32723,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>452</v>
       </c>
@@ -32777,7 +32776,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>452</v>
       </c>
@@ -32830,7 +32829,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>452</v>
       </c>
@@ -32883,7 +32882,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>452</v>
       </c>
@@ -32936,7 +32935,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>452</v>
       </c>
@@ -32989,7 +32988,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>452</v>
       </c>
@@ -33042,7 +33041,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>452</v>
       </c>
@@ -33095,7 +33094,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>452</v>
       </c>
@@ -33148,7 +33147,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>452</v>
       </c>
@@ -33201,7 +33200,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>452</v>
       </c>
@@ -33254,7 +33253,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>452</v>
       </c>
@@ -33307,7 +33306,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>452</v>
       </c>
@@ -33360,7 +33359,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>452</v>
       </c>
@@ -33413,7 +33412,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>452</v>
       </c>
@@ -33466,7 +33465,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>452</v>
       </c>
@@ -33519,7 +33518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="501" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>452</v>
       </c>
@@ -33572,7 +33571,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="502" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>452</v>
       </c>
@@ -33625,7 +33624,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>452</v>
       </c>
@@ -33678,7 +33677,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>452</v>
       </c>
@@ -33731,7 +33730,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>452</v>
       </c>
@@ -33784,7 +33783,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>452</v>
       </c>
@@ -33837,7 +33836,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>452</v>
       </c>
@@ -33890,7 +33889,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>452</v>
       </c>
@@ -33943,7 +33942,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>452</v>
       </c>
@@ -33996,7 +33995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>452</v>
       </c>
@@ -34049,7 +34048,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>452</v>
       </c>
@@ -34102,7 +34101,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>452</v>
       </c>
@@ -34155,7 +34154,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="513" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>452</v>
       </c>
@@ -34208,7 +34207,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="514" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>452</v>
       </c>
@@ -34261,7 +34260,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="515" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>452</v>
       </c>
@@ -34314,7 +34313,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="516" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>452</v>
       </c>
@@ -34367,7 +34366,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="517" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>452</v>
       </c>
@@ -34420,7 +34419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="518" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>452</v>
       </c>
@@ -34473,7 +34472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="519" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>452</v>
       </c>
@@ -34526,7 +34525,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="520" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>452</v>
       </c>
@@ -34579,7 +34578,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="521" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>452</v>
       </c>
@@ -34632,7 +34631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="522" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>452</v>
       </c>
@@ -34685,7 +34684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="523" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>452</v>
       </c>
@@ -34738,7 +34737,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="524" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>452</v>
       </c>
@@ -34791,7 +34790,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="525" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>452</v>
       </c>
@@ -34844,7 +34843,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="526" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>452</v>
       </c>
@@ -34897,7 +34896,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="527" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>452</v>
       </c>
@@ -34950,7 +34949,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="528" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>452</v>
       </c>
@@ -35003,7 +35002,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="529" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>452</v>
       </c>
@@ -35056,7 +35055,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="530" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>452</v>
       </c>
@@ -35109,7 +35108,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="531" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>452</v>
       </c>
@@ -35162,7 +35161,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>452</v>
       </c>
@@ -35215,7 +35214,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>452</v>
       </c>
@@ -35268,7 +35267,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>452</v>
       </c>
@@ -35321,7 +35320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>452</v>
       </c>
@@ -35374,7 +35373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>452</v>
       </c>
@@ -35427,7 +35426,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>452</v>
       </c>
@@ -35480,7 +35479,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>452</v>
       </c>
@@ -35533,7 +35532,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>452</v>
       </c>
@@ -35586,7 +35585,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>452</v>
       </c>
@@ -35639,7 +35638,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>452</v>
       </c>
@@ -35692,7 +35691,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="542" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>452</v>
       </c>
@@ -35745,7 +35744,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="543" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>452</v>
       </c>
@@ -35798,7 +35797,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="544" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>452</v>
       </c>
@@ -35851,7 +35850,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="545" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>452</v>
       </c>
@@ -35904,7 +35903,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="546" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>452</v>
       </c>
@@ -35957,7 +35956,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>452</v>
       </c>
@@ -36010,7 +36009,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>452</v>
       </c>
@@ -36063,7 +36062,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>452</v>
       </c>
@@ -36116,7 +36115,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>452</v>
       </c>
@@ -36169,7 +36168,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>452</v>
       </c>
@@ -36222,7 +36221,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>452</v>
       </c>
@@ -36275,7 +36274,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>452</v>
       </c>
@@ -36328,7 +36327,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>452</v>
       </c>
@@ -36381,7 +36380,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>452</v>
       </c>
@@ -36434,7 +36433,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>452</v>
       </c>
@@ -36487,7 +36486,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="557" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>452</v>
       </c>
@@ -36540,7 +36539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="558" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>452</v>
       </c>
@@ -36593,7 +36592,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="559" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>452</v>
       </c>
@@ -36646,7 +36645,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="560" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>452</v>
       </c>
@@ -36699,7 +36698,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="561" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>452</v>
       </c>
@@ -36752,7 +36751,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="562" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>452</v>
       </c>
@@ -36805,7 +36804,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>452</v>
       </c>
@@ -36858,7 +36857,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>452</v>
       </c>
@@ -36911,7 +36910,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>452</v>
       </c>
@@ -36964,7 +36963,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>452</v>
       </c>
@@ -37017,7 +37016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>452</v>
       </c>
@@ -37070,7 +37069,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>452</v>
       </c>
@@ -37123,7 +37122,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>452</v>
       </c>
@@ -37176,7 +37175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>452</v>
       </c>
@@ -37229,7 +37228,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>452</v>
       </c>
@@ -37282,7 +37281,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="572" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>452</v>
       </c>
@@ -37335,7 +37334,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="573" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>452</v>
       </c>
@@ -37388,7 +37387,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="574" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>452</v>
       </c>
@@ -37441,7 +37440,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="575" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>452</v>
       </c>
@@ -37494,7 +37493,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="576" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>563</v>
       </c>
@@ -37547,7 +37546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>563</v>
       </c>
@@ -37600,7 +37599,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>563</v>
       </c>
@@ -37653,7 +37652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>563</v>
       </c>
@@ -37706,7 +37705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>563</v>
       </c>
@@ -37759,7 +37758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>563</v>
       </c>
@@ -37812,7 +37811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>563</v>
       </c>
@@ -37865,7 +37864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>563</v>
       </c>
@@ -37918,7 +37917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>563</v>
       </c>
@@ -37971,7 +37970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>563</v>
       </c>
@@ -38024,7 +38023,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>563</v>
       </c>
@@ -38077,7 +38076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>563</v>
       </c>
@@ -38130,7 +38129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>563</v>
       </c>
@@ -38183,7 +38182,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="589" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>563</v>
       </c>
@@ -38236,7 +38235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>563</v>
       </c>
@@ -38289,7 +38288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="591" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>563</v>
       </c>
@@ -38342,7 +38341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>563</v>
       </c>
@@ -38395,7 +38394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>563</v>
       </c>
@@ -38448,7 +38447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>563</v>
       </c>
@@ -38501,7 +38500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>563</v>
       </c>
@@ -38554,7 +38553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>563</v>
       </c>
@@ -38607,7 +38606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="597" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>563</v>
       </c>
@@ -38660,7 +38659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="598" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>563</v>
       </c>
@@ -38713,7 +38712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="599" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>563</v>
       </c>
@@ -38766,7 +38765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>563</v>
       </c>
@@ -38819,7 +38818,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="601" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>563</v>
       </c>
@@ -38872,7 +38871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="602" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>563</v>
       </c>
@@ -38925,7 +38924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>563</v>
       </c>
@@ -38978,7 +38977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>563</v>
       </c>
@@ -39031,7 +39030,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="605" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>563</v>
       </c>
@@ -39084,7 +39083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>593</v>
       </c>
@@ -39137,7 +39136,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="607" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>593</v>
       </c>
@@ -39190,7 +39189,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="608" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>593</v>
       </c>
@@ -39243,7 +39242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>593</v>
       </c>
@@ -39296,7 +39295,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>593</v>
       </c>
@@ -39349,7 +39348,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>593</v>
       </c>
@@ -39402,7 +39401,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>593</v>
       </c>
@@ -39455,7 +39454,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>593</v>
       </c>
@@ -39508,7 +39507,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>593</v>
       </c>
@@ -39561,7 +39560,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>593</v>
       </c>
@@ -39614,7 +39613,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>593</v>
       </c>
@@ -39667,7 +39666,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>593</v>
       </c>
@@ -39720,7 +39719,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>593</v>
       </c>
@@ -39773,7 +39772,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>593</v>
       </c>
@@ -39826,7 +39825,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>593</v>
       </c>
@@ -39879,7 +39878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>593</v>
       </c>
@@ -39932,7 +39931,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>593</v>
       </c>
@@ -39985,7 +39984,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>593</v>
       </c>
@@ -40038,7 +40037,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>593</v>
       </c>
@@ -40091,7 +40090,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="625" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>593</v>
       </c>
@@ -40144,7 +40143,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="626" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>593</v>
       </c>
@@ -40197,7 +40196,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="627" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>593</v>
       </c>
@@ -40250,7 +40249,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="628" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>593</v>
       </c>
@@ -40303,7 +40302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="629" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>593</v>
       </c>
@@ -40356,7 +40355,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="630" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>593</v>
       </c>
@@ -40409,7 +40408,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="631" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>593</v>
       </c>
@@ -40462,7 +40461,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="632" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>593</v>
       </c>
@@ -40515,7 +40514,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="633" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>593</v>
       </c>
@@ -40568,7 +40567,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="634" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>593</v>
       </c>
@@ -40621,7 +40620,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="635" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>593</v>
       </c>
@@ -40674,7 +40673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="636" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -40727,7 +40726,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="637" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>593</v>
       </c>
@@ -40780,7 +40779,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="638" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>593</v>
       </c>
@@ -40833,7 +40832,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="639" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>593</v>
       </c>
@@ -40886,7 +40885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="640" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>593</v>
       </c>
@@ -40939,7 +40938,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="641" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>593</v>
       </c>
@@ -40992,7 +40991,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="642" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>593</v>
       </c>
@@ -41045,7 +41044,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="643" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>628</v>
       </c>
@@ -41098,7 +41097,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="644" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>628</v>
       </c>
@@ -41151,7 +41150,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="645" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>628</v>
       </c>
@@ -41204,7 +41203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="646" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>628</v>
       </c>
@@ -41257,7 +41256,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="647" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>628</v>
       </c>
@@ -41310,7 +41309,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="648" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>628</v>
       </c>
@@ -41363,7 +41362,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="649" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>628</v>
       </c>
@@ -41416,7 +41415,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="650" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>628</v>
       </c>
@@ -41469,7 +41468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="651" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>628</v>
       </c>
@@ -41522,7 +41521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="652" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>628</v>
       </c>
@@ -41575,7 +41574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="653" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>628</v>
       </c>
@@ -41628,7 +41627,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="654" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>628</v>
       </c>
@@ -41681,7 +41680,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="655" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>628</v>
       </c>
@@ -41734,7 +41733,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="656" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>628</v>
       </c>
@@ -41787,7 +41786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="657" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>628</v>
       </c>
@@ -41840,7 +41839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="658" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>642</v>
       </c>
@@ -41893,7 +41892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="659" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>642</v>
       </c>
@@ -41946,7 +41945,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="660" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>642</v>
       </c>
@@ -41999,7 +41998,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="661" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>642</v>
       </c>
@@ -42052,7 +42051,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="662" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>642</v>
       </c>
@@ -42105,7 +42104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="663" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>642</v>
       </c>
@@ -42158,7 +42157,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="664" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>642</v>
       </c>
@@ -42211,7 +42210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="665" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>642</v>
       </c>
@@ -42264,7 +42263,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="666" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>642</v>
       </c>
@@ -42317,7 +42316,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="667" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>642</v>
       </c>
@@ -42370,7 +42369,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="668" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>642</v>
       </c>
@@ -42423,7 +42422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="669" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>642</v>
       </c>
@@ -42476,7 +42475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="670" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>642</v>
       </c>
@@ -42529,7 +42528,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="671" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>642</v>
       </c>
@@ -42582,7 +42581,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="672" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>642</v>
       </c>
@@ -42635,7 +42634,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="673" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>642</v>
       </c>
@@ -42688,7 +42687,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="674" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>642</v>
       </c>
@@ -42741,7 +42740,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="675" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>642</v>
       </c>
@@ -42794,7 +42793,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="676" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>642</v>
       </c>
@@ -42847,7 +42846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>642</v>
       </c>
@@ -42900,7 +42899,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="678" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>642</v>
       </c>
@@ -42953,7 +42952,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="679" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>642</v>
       </c>
@@ -43006,7 +43005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="680" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>642</v>
       </c>
@@ -43059,7 +43058,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="681" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>642</v>
       </c>
@@ -43112,7 +43111,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="682" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>642</v>
       </c>
@@ -43165,7 +43164,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="683" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>642</v>
       </c>
@@ -43218,7 +43217,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="684" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>642</v>
       </c>
@@ -43271,7 +43270,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="685" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>642</v>
       </c>
@@ -43324,7 +43323,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="686" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>642</v>
       </c>
@@ -43377,7 +43376,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="687" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>642</v>
       </c>
@@ -43430,7 +43429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="688" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>671</v>
       </c>
@@ -43483,7 +43482,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="689" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>671</v>
       </c>
@@ -43536,7 +43535,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="690" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>671</v>
       </c>
@@ -43589,7 +43588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="691" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>671</v>
       </c>
@@ -43642,7 +43641,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="692" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>671</v>
       </c>
@@ -43695,7 +43694,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="693" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>671</v>
       </c>
@@ -43748,7 +43747,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="694" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>671</v>
       </c>
@@ -43801,7 +43800,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="695" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>671</v>
       </c>
@@ -43854,7 +43853,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="696" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>671</v>
       </c>
@@ -43907,7 +43906,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="697" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>671</v>
       </c>
@@ -43960,7 +43959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="698" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>671</v>
       </c>
@@ -44013,7 +44012,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="699" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>671</v>
       </c>
@@ -44066,7 +44065,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="700" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>671</v>
       </c>
@@ -44119,7 +44118,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="701" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>671</v>
       </c>
@@ -44172,7 +44171,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="702" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>671</v>
       </c>
@@ -44225,7 +44224,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="703" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>671</v>
       </c>
@@ -44278,7 +44277,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="704" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>671</v>
       </c>
@@ -44331,7 +44330,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="705" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>671</v>
       </c>
@@ -44384,7 +44383,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="706" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>671</v>
       </c>
@@ -44437,7 +44436,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="707" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>671</v>
       </c>
@@ -44490,7 +44489,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="708" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>671</v>
       </c>
@@ -44543,7 +44542,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="709" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>671</v>
       </c>
@@ -44596,7 +44595,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="710" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>671</v>
       </c>
@@ -44649,7 +44648,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="711" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>671</v>
       </c>
@@ -44702,7 +44701,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="712" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>671</v>
       </c>
@@ -44755,7 +44754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="713" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>671</v>
       </c>
@@ -44808,7 +44807,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="714" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>671</v>
       </c>
@@ -44861,7 +44860,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="715" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>671</v>
       </c>
@@ -44914,7 +44913,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="716" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>671</v>
       </c>
@@ -44967,7 +44966,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="717" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>74</v>
       </c>
@@ -45020,7 +45019,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="718" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>74</v>
       </c>
@@ -45073,7 +45072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="719" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>74</v>
       </c>
@@ -45126,7 +45125,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="720" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>74</v>
       </c>
@@ -45179,7 +45178,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="721" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>74</v>
       </c>
@@ -45232,7 +45231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="722" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>74</v>
       </c>
@@ -45285,7 +45284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>74</v>
       </c>
@@ -45338,7 +45337,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="724" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>74</v>
       </c>
@@ -45391,7 +45390,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="725" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>74</v>
       </c>
@@ -45444,7 +45443,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="726" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>74</v>
       </c>
@@ -45497,7 +45496,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="727" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>74</v>
       </c>
@@ -45550,7 +45549,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="728" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>74</v>
       </c>
@@ -45603,7 +45602,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="729" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>74</v>
       </c>
@@ -45656,7 +45655,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="730" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>74</v>
       </c>
@@ -45709,7 +45708,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="731" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>74</v>
       </c>
@@ -45762,7 +45761,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="732" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>74</v>
       </c>
@@ -45815,7 +45814,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="733" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>74</v>
       </c>
@@ -45868,7 +45867,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="734" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>74</v>
       </c>
@@ -45921,7 +45920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="735" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>74</v>
       </c>
@@ -45974,7 +45973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="736" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>74</v>
       </c>
@@ -46027,7 +46026,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="737" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>74</v>
       </c>
@@ -46080,7 +46079,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="738" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>74</v>
       </c>
@@ -46133,7 +46132,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="739" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>74</v>
       </c>
@@ -46186,7 +46185,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="740" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>74</v>
       </c>
@@ -46239,7 +46238,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="741" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>74</v>
       </c>
@@ -46292,7 +46291,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="742" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>74</v>
       </c>
@@ -46345,7 +46344,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="743" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>74</v>
       </c>
@@ -46398,7 +46397,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="744" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>74</v>
       </c>
@@ -46451,7 +46450,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="745" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>74</v>
       </c>
@@ -46504,7 +46503,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="746" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>74</v>
       </c>
@@ -46557,7 +46556,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="747" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>74</v>
       </c>
@@ -46610,7 +46609,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="748" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>74</v>
       </c>
@@ -46663,7 +46662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="749" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>74</v>
       </c>
@@ -46716,7 +46715,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="750" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>74</v>
       </c>
@@ -46769,7 +46768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="751" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>74</v>
       </c>
@@ -46822,7 +46821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="752" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>74</v>
       </c>
@@ -46875,7 +46874,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="753" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>74</v>
       </c>
@@ -46928,7 +46927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="754" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>74</v>
       </c>
@@ -46981,7 +46980,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="755" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>74</v>
       </c>
@@ -47034,7 +47033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="756" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>74</v>
       </c>
@@ -47087,7 +47086,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="757" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>74</v>
       </c>
@@ -47140,7 +47139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="758" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>74</v>
       </c>
@@ -47193,7 +47192,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="759" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>74</v>
       </c>
@@ -47246,7 +47245,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="760" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>74</v>
       </c>
@@ -47299,7 +47298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="761" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>74</v>
       </c>
@@ -47352,7 +47351,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="762" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>74</v>
       </c>
@@ -47405,7 +47404,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="763" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>74</v>
       </c>
@@ -47458,7 +47457,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="764" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>74</v>
       </c>
@@ -47511,7 +47510,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="765" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>74</v>
       </c>
@@ -47564,7 +47563,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="766" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>74</v>
       </c>
@@ -47617,7 +47616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="767" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>74</v>
       </c>
@@ -47670,7 +47669,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="768" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>74</v>
       </c>
@@ -47723,7 +47722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="769" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>74</v>
       </c>
@@ -47776,7 +47775,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="770" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>74</v>
       </c>
@@ -47829,7 +47828,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="771" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>74</v>
       </c>
@@ -47882,7 +47881,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="772" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>74</v>
       </c>
@@ -47935,7 +47934,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="773" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>74</v>
       </c>
@@ -47988,7 +47987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="774" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>74</v>
       </c>
@@ -48041,7 +48040,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="775" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>74</v>
       </c>
@@ -48094,7 +48093,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="776" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>74</v>
       </c>
@@ -48147,7 +48146,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="777" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>74</v>
       </c>
@@ -48200,7 +48199,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="778" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>74</v>
       </c>
@@ -48253,7 +48252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="779" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>74</v>
       </c>
@@ -48306,7 +48305,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="780" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>74</v>
       </c>
@@ -48359,7 +48358,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="781" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>750</v>
       </c>
@@ -48412,7 +48411,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="782" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>750</v>
       </c>
@@ -48465,7 +48464,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="783" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>750</v>
       </c>
@@ -48518,7 +48517,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="784" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>750</v>
       </c>
@@ -48571,7 +48570,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="785" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>750</v>
       </c>
@@ -48624,7 +48623,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="786" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>750</v>
       </c>
@@ -48677,7 +48676,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="787" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>750</v>
       </c>
@@ -48730,7 +48729,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="788" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>750</v>
       </c>
@@ -48783,7 +48782,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="789" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>750</v>
       </c>
@@ -48836,7 +48835,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="790" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>750</v>
       </c>
@@ -48889,7 +48888,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="791" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>750</v>
       </c>
@@ -48942,7 +48941,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="792" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>750</v>
       </c>
@@ -48995,7 +48994,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="793" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>750</v>
       </c>
@@ -49048,7 +49047,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="794" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>750</v>
       </c>
@@ -49101,7 +49100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="795" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>750</v>
       </c>
@@ -49154,7 +49153,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="796" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>750</v>
       </c>
@@ -49207,7 +49206,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="797" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>750</v>
       </c>
@@ -49260,7 +49259,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="798" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>750</v>
       </c>
@@ -49313,7 +49312,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="799" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>750</v>
       </c>
@@ -49366,7 +49365,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="800" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>750</v>
       </c>
@@ -49419,7 +49418,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="801" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>750</v>
       </c>
@@ -49472,7 +49471,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="802" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>750</v>
       </c>
@@ -49525,7 +49524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="803" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>750</v>
       </c>
@@ -49578,7 +49577,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="804" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>750</v>
       </c>
@@ -49631,7 +49630,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="805" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>750</v>
       </c>
@@ -49684,7 +49683,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="806" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>750</v>
       </c>
@@ -49737,7 +49736,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="807" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>750</v>
       </c>
@@ -49790,7 +49789,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="808" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>750</v>
       </c>
@@ -49843,7 +49842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="809" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>750</v>
       </c>
@@ -49896,7 +49895,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="810" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>750</v>
       </c>
@@ -49949,7 +49948,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="811" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>750</v>
       </c>
@@ -50002,7 +50001,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="812" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>750</v>
       </c>
@@ -50055,7 +50054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="813" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>750</v>
       </c>
@@ -50108,7 +50107,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="814" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>750</v>
       </c>
@@ -50161,7 +50160,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="815" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>750</v>
       </c>
@@ -50214,7 +50213,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="816" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>750</v>
       </c>
@@ -50267,7 +50266,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="817" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>750</v>
       </c>
@@ -50320,7 +50319,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="818" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>750</v>
       </c>
@@ -50373,7 +50372,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="819" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>750</v>
       </c>
@@ -50426,7 +50425,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="820" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>750</v>
       </c>
@@ -50479,7 +50478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="821" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>789</v>
       </c>
@@ -50532,7 +50531,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="822" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>789</v>
       </c>
@@ -50585,7 +50584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="823" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>789</v>
       </c>
@@ -50638,7 +50637,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="824" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>789</v>
       </c>
@@ -50691,7 +50690,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="825" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>789</v>
       </c>
@@ -50744,7 +50743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="826" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>789</v>
       </c>
@@ -50797,7 +50796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="827" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>789</v>
       </c>
@@ -50850,7 +50849,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="828" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>789</v>
       </c>
@@ -50903,7 +50902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="829" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>789</v>
       </c>
@@ -50956,7 +50955,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="830" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>789</v>
       </c>
@@ -51009,7 +51008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="831" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>789</v>
       </c>
@@ -51062,7 +51061,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="832" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>789</v>
       </c>
@@ -51115,7 +51114,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="833" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>337</v>
       </c>
@@ -51168,7 +51167,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="834" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>337</v>
       </c>
@@ -51221,7 +51220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="835" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>337</v>
       </c>
@@ -51274,7 +51273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="836" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>337</v>
       </c>
@@ -51327,7 +51326,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="837" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>337</v>
       </c>
@@ -51380,7 +51379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="838" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>337</v>
       </c>
@@ -51433,7 +51432,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="839" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>337</v>
       </c>
@@ -51486,7 +51485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="840" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>337</v>
       </c>
@@ -51539,7 +51538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="841" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>337</v>
       </c>
@@ -51592,7 +51591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="842" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>337</v>
       </c>
@@ -51645,7 +51644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="843" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>337</v>
       </c>
@@ -51698,7 +51697,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="844" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>337</v>
       </c>
@@ -51751,7 +51750,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="845" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>337</v>
       </c>
@@ -51804,7 +51803,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="846" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>337</v>
       </c>
@@ -51857,7 +51856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="847" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>812</v>
       </c>
@@ -51910,7 +51909,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="848" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>812</v>
       </c>
@@ -51963,7 +51962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="849" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>812</v>
       </c>
@@ -52016,7 +52015,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="850" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>812</v>
       </c>
@@ -52069,7 +52068,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="851" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>812</v>
       </c>
@@ -52122,7 +52121,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="852" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>812</v>
       </c>
@@ -52175,7 +52174,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="853" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>812</v>
       </c>
@@ -52228,7 +52227,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="854" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>812</v>
       </c>
@@ -52281,7 +52280,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="855" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>812</v>
       </c>
@@ -52334,7 +52333,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="856" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>812</v>
       </c>
@@ -52387,7 +52386,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="857" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>812</v>
       </c>
@@ -52440,7 +52439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="858" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>812</v>
       </c>
@@ -52493,7 +52492,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="859" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>812</v>
       </c>
@@ -52546,7 +52545,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="860" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>812</v>
       </c>
@@ -52599,7 +52598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="861" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>812</v>
       </c>
@@ -52652,7 +52651,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="862" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>812</v>
       </c>
@@ -52705,7 +52704,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="863" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>812</v>
       </c>
@@ -52758,7 +52757,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="864" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>812</v>
       </c>
@@ -52811,7 +52810,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="865" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>812</v>
       </c>
@@ -52864,7 +52863,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="866" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>812</v>
       </c>
@@ -52917,7 +52916,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="867" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>812</v>
       </c>
@@ -52970,7 +52969,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="868" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>812</v>
       </c>
@@ -53023,7 +53022,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="869" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>812</v>
       </c>
@@ -53076,7 +53075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="870" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>812</v>
       </c>
@@ -53129,7 +53128,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="871" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>812</v>
       </c>
@@ -53182,7 +53181,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="872" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>812</v>
       </c>
@@ -53235,7 +53234,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="873" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>812</v>
       </c>
@@ -53288,7 +53287,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="874" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>812</v>
       </c>
@@ -53341,7 +53340,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="875" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>812</v>
       </c>
@@ -53394,7 +53393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="876" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>812</v>
       </c>
@@ -53447,7 +53446,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="877" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>812</v>
       </c>
@@ -53500,7 +53499,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="878" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>812</v>
       </c>
@@ -53553,7 +53552,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="879" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>812</v>
       </c>
@@ -53606,7 +53605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="880" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>812</v>
       </c>
@@ -53659,7 +53658,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="881" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>812</v>
       </c>
@@ -53712,7 +53711,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="882" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>812</v>
       </c>
@@ -53765,7 +53764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="883" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>812</v>
       </c>
@@ -53818,7 +53817,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="884" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>812</v>
       </c>
@@ -53871,7 +53870,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="885" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>812</v>
       </c>
@@ -53924,7 +53923,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="886" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>812</v>
       </c>
@@ -53977,7 +53976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="887" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>812</v>
       </c>
@@ -54030,7 +54029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="888" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>812</v>
       </c>
@@ -54083,7 +54082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="889" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>812</v>
       </c>
@@ -54136,7 +54135,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="890" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>812</v>
       </c>
@@ -54189,7 +54188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="891" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>812</v>
       </c>
@@ -54242,7 +54241,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="892" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>812</v>
       </c>
@@ -54295,7 +54294,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="893" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>812</v>
       </c>
@@ -54348,7 +54347,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="894" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>812</v>
       </c>
@@ -54401,7 +54400,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="895" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>812</v>
       </c>
@@ -54454,7 +54453,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="896" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>812</v>
       </c>
@@ -54507,7 +54506,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="897" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>812</v>
       </c>
@@ -54560,7 +54559,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="898" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>812</v>
       </c>
@@ -54613,7 +54612,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="899" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>812</v>
       </c>
@@ -54666,7 +54665,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="900" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>812</v>
       </c>
@@ -54719,7 +54718,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="901" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>812</v>
       </c>
@@ -54772,7 +54771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="902" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>812</v>
       </c>
@@ -54825,7 +54824,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="903" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>812</v>
       </c>
@@ -54878,7 +54877,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="904" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>812</v>
       </c>
@@ -54931,7 +54930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="905" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>812</v>
       </c>
@@ -54984,7 +54983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="906" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>812</v>
       </c>
@@ -55037,7 +55036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="907" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>812</v>
       </c>
@@ -55090,7 +55089,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="908" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>812</v>
       </c>
@@ -55143,7 +55142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="909" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>812</v>
       </c>
@@ -55196,7 +55195,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="910" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>812</v>
       </c>
@@ -55249,7 +55248,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="911" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>812</v>
       </c>
@@ -55302,7 +55301,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="912" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>812</v>
       </c>
@@ -55355,7 +55354,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="913" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>812</v>
       </c>
@@ -55408,7 +55407,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="914" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>812</v>
       </c>
@@ -55461,7 +55460,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="915" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>812</v>
       </c>
@@ -55514,7 +55513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="916" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>812</v>
       </c>
@@ -55567,7 +55566,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="917" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>812</v>
       </c>
@@ -55620,7 +55619,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="918" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>812</v>
       </c>
@@ -55673,7 +55672,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="919" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>812</v>
       </c>
@@ -55726,7 +55725,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="920" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>812</v>
       </c>
@@ -55779,7 +55778,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="921" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>812</v>
       </c>
@@ -55832,7 +55831,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="922" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>812</v>
       </c>
@@ -55885,7 +55884,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="923" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>812</v>
       </c>
@@ -55938,7 +55937,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="924" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>812</v>
       </c>
@@ -55991,7 +55990,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="925" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>812</v>
       </c>
@@ -56044,7 +56043,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="926" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>812</v>
       </c>
@@ -56097,7 +56096,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="927" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>812</v>
       </c>
@@ -56150,7 +56149,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="928" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>812</v>
       </c>
@@ -56203,7 +56202,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="929" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>812</v>
       </c>
@@ -56256,7 +56255,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="930" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>812</v>
       </c>
@@ -56309,7 +56308,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="931" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>812</v>
       </c>
@@ -56362,7 +56361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="932" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>812</v>
       </c>
@@ -56415,7 +56414,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="933" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>812</v>
       </c>
@@ -56468,7 +56467,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="934" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>392</v>
       </c>
@@ -56521,7 +56520,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="935" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>392</v>
       </c>
@@ -56574,7 +56573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="936" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>392</v>
       </c>
@@ -56627,7 +56626,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="937" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>392</v>
       </c>
@@ -56680,7 +56679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="938" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>392</v>
       </c>
@@ -56733,7 +56732,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="939" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>392</v>
       </c>
@@ -56786,7 +56785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="940" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>392</v>
       </c>
@@ -56839,7 +56838,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="941" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>392</v>
       </c>
@@ -56892,7 +56891,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="942" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>392</v>
       </c>
@@ -56945,7 +56944,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="943" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>392</v>
       </c>
@@ -56998,7 +56997,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="944" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>392</v>
       </c>
@@ -57051,7 +57050,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="945" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>392</v>
       </c>
@@ -57104,7 +57103,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="946" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>392</v>
       </c>
@@ -57157,7 +57156,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="947" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>392</v>
       </c>
@@ -57210,7 +57209,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="948" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>392</v>
       </c>
@@ -57263,7 +57262,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="949" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>392</v>
       </c>
@@ -57316,7 +57315,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="950" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>392</v>
       </c>
@@ -57369,7 +57368,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="951" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>392</v>
       </c>
@@ -57422,7 +57421,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="952" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>392</v>
       </c>
@@ -57475,7 +57474,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="953" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>392</v>
       </c>
@@ -57528,7 +57527,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="954" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>392</v>
       </c>
@@ -57581,7 +57580,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="955" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>392</v>
       </c>
@@ -57634,7 +57633,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="956" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>392</v>
       </c>
@@ -57687,7 +57686,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="957" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>392</v>
       </c>
@@ -57740,7 +57739,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="958" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>392</v>
       </c>
@@ -57793,7 +57792,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="959" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>392</v>
       </c>
@@ -57846,7 +57845,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="960" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>909</v>
       </c>
@@ -57899,7 +57898,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="961" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>909</v>
       </c>
@@ -57952,7 +57951,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="962" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>909</v>
       </c>
@@ -58005,7 +58004,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="963" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>909</v>
       </c>
@@ -58058,7 +58057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="964" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>909</v>
       </c>
@@ -58111,7 +58110,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="965" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>909</v>
       </c>
@@ -58164,7 +58163,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="966" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>909</v>
       </c>
@@ -58217,7 +58216,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="967" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>909</v>
       </c>
@@ -58270,7 +58269,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="968" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>909</v>
       </c>
@@ -58323,7 +58322,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="969" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>909</v>
       </c>
@@ -58376,7 +58375,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="970" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>909</v>
       </c>
@@ -58429,7 +58428,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="971" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>909</v>
       </c>
@@ -58482,7 +58481,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="972" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>909</v>
       </c>
@@ -58535,7 +58534,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="973" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>909</v>
       </c>
@@ -58588,7 +58587,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="974" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
         <v>909</v>
       </c>
@@ -58641,7 +58640,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="975" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
         <v>909</v>
       </c>
@@ -58694,7 +58693,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="976" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
         <v>909</v>
       </c>
@@ -58747,7 +58746,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="977" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
         <v>909</v>
       </c>
@@ -58800,7 +58799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="978" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>909</v>
       </c>
@@ -58853,7 +58852,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="979" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>909</v>
       </c>
@@ -58906,7 +58905,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="980" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>909</v>
       </c>
@@ -58959,7 +58958,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="981" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
         <v>909</v>
       </c>
@@ -59012,7 +59011,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="982" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
         <v>909</v>
       </c>
@@ -59065,7 +59064,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="983" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>909</v>
       </c>
@@ -59118,7 +59117,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="984" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>909</v>
       </c>
@@ -59171,7 +59170,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="985" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>909</v>
       </c>
@@ -59224,7 +59223,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="986" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
         <v>909</v>
       </c>
@@ -59277,7 +59276,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="987" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
         <v>909</v>
       </c>
@@ -59330,7 +59329,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="988" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
         <v>909</v>
       </c>
@@ -59383,7 +59382,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="989" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
         <v>909</v>
       </c>
@@ -59436,7 +59435,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="990" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
         <v>909</v>
       </c>
@@ -59489,7 +59488,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="991" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
         <v>909</v>
       </c>
@@ -59542,7 +59541,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="992" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
         <v>909</v>
       </c>
@@ -59595,7 +59594,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="993" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
         <v>909</v>
       </c>
@@ -59648,7 +59647,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="994" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
         <v>909</v>
       </c>
@@ -59701,7 +59700,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="995" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
         <v>909</v>
       </c>
@@ -59754,7 +59753,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="996" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
         <v>909</v>
       </c>
@@ -59807,7 +59806,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="997" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
         <v>909</v>
       </c>
@@ -59860,7 +59859,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="998" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
         <v>909</v>
       </c>
@@ -59913,7 +59912,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="999" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
         <v>909</v>
       </c>
@@ -59966,7 +59965,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="1000" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
         <v>909</v>
       </c>
@@ -60019,7 +60018,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="1001" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
         <v>909</v>
       </c>
@@ -60072,7 +60071,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="1002" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
         <v>909</v>
       </c>
@@ -60125,7 +60124,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1003" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
         <v>909</v>
       </c>
@@ -60178,7 +60177,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="1004" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
         <v>909</v>
       </c>
@@ -60231,7 +60230,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1005" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
         <v>909</v>
       </c>
@@ -60284,7 +60283,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1006" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
         <v>909</v>
       </c>
@@ -60337,7 +60336,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1007" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
         <v>955</v>
       </c>
@@ -60390,7 +60389,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="1008" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
         <v>955</v>
       </c>
@@ -60443,7 +60442,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1009" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
         <v>955</v>
       </c>
@@ -60496,7 +60495,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="1010" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
         <v>955</v>
       </c>
@@ -60549,7 +60548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1011" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
         <v>955</v>
       </c>
@@ -60602,7 +60601,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1012" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
         <v>955</v>
       </c>
@@ -60655,7 +60654,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="1013" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1013" t="s">
         <v>955</v>
       </c>
@@ -60708,7 +60707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1014" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1014" t="s">
         <v>955</v>
       </c>
@@ -60761,7 +60760,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1015" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1015" t="s">
         <v>955</v>
       </c>
@@ -60814,7 +60813,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="1016" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1016" t="s">
         <v>955</v>
       </c>
@@ -60867,7 +60866,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="1017" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1017" t="s">
         <v>955</v>
       </c>
@@ -60920,7 +60919,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="1018" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1018" t="s">
         <v>955</v>
       </c>
@@ -60973,7 +60972,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1019" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1019" t="s">
         <v>955</v>
       </c>
@@ -61026,7 +61025,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1020" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1020" t="s">
         <v>955</v>
       </c>
@@ -61079,7 +61078,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="1021" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1021" t="s">
         <v>955</v>
       </c>
@@ -61132,7 +61131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1022" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1022" t="s">
         <v>955</v>
       </c>
@@ -61185,7 +61184,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1023" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1023" t="s">
         <v>955</v>
       </c>
@@ -61238,7 +61237,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="1024" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1024" t="s">
         <v>955</v>
       </c>
@@ -61291,7 +61290,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="1025" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1025" t="s">
         <v>955</v>
       </c>
@@ -61344,7 +61343,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="1026" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1026" t="s">
         <v>955</v>
       </c>
@@ -61397,7 +61396,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1027" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1027" t="s">
         <v>955</v>
       </c>
@@ -61450,7 +61449,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1028" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1028" t="s">
         <v>955</v>
       </c>
@@ -61503,7 +61502,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="1029" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1029" t="s">
         <v>955</v>
       </c>
@@ -61556,7 +61555,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="1030" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1030" t="s">
         <v>955</v>
       </c>
@@ -61609,7 +61608,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="1031" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1031" t="s">
         <v>955</v>
       </c>
@@ -61662,7 +61661,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1032" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1032" t="s">
         <v>955</v>
       </c>
@@ -61715,7 +61714,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="1033" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
         <v>955</v>
       </c>
@@ -61768,7 +61767,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="1034" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
         <v>955</v>
       </c>
@@ -61821,7 +61820,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1035" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
         <v>955</v>
       </c>
@@ -61874,7 +61873,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1036" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1036" t="s">
         <v>955</v>
       </c>
@@ -61927,7 +61926,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="1037" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1037" t="s">
         <v>955</v>
       </c>
@@ -61980,7 +61979,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="1038" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1038" t="s">
         <v>955</v>
       </c>
@@ -62033,7 +62032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="1039" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1039" t="s">
         <v>955</v>
       </c>
@@ -62086,7 +62085,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1040" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1040" t="s">
         <v>955</v>
       </c>
@@ -62139,7 +62138,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1041" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1041" t="s">
         <v>955</v>
       </c>
@@ -62192,7 +62191,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1042" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
         <v>955</v>
       </c>
@@ -62245,7 +62244,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="1043" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1043" t="s">
         <v>955</v>
       </c>
@@ -62298,7 +62297,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1044" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1044" t="s">
         <v>955</v>
       </c>
@@ -62351,7 +62350,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1045" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
         <v>955</v>
       </c>
@@ -62404,7 +62403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="1046" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
         <v>955</v>
       </c>
@@ -62457,7 +62456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="1047" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1047" t="s">
         <v>955</v>
       </c>
@@ -62510,7 +62509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1048" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
         <v>955</v>
       </c>
@@ -62563,7 +62562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1049" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
         <v>991</v>
       </c>
@@ -62616,7 +62615,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="1050" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1050" t="s">
         <v>991</v>
       </c>
@@ -62669,7 +62668,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="1051" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1051" t="s">
         <v>991</v>
       </c>
@@ -62722,7 +62721,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1052" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1052" t="s">
         <v>991</v>
       </c>
@@ -62775,7 +62774,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="1053" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1053" t="s">
         <v>991</v>
       </c>
@@ -62828,7 +62827,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1054" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1054" t="s">
         <v>991</v>
       </c>
@@ -62881,7 +62880,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="1055" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1055" t="s">
         <v>991</v>
       </c>
@@ -62934,7 +62933,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="1056" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1056" t="s">
         <v>998</v>
       </c>
@@ -62987,7 +62986,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="1057" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1057" t="s">
         <v>998</v>
       </c>
@@ -63040,7 +63039,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1058" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1058" t="s">
         <v>998</v>
       </c>
@@ -63093,7 +63092,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1059" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1059" t="s">
         <v>998</v>
       </c>
@@ -63146,7 +63145,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="1060" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1060" t="s">
         <v>998</v>
       </c>
@@ -63199,7 +63198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1061" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
         <v>998</v>
       </c>
@@ -63252,7 +63251,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="1062" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
         <v>998</v>
       </c>
@@ -63305,7 +63304,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="1063" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1063" t="s">
         <v>998</v>
       </c>
@@ -63358,7 +63357,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="1064" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1064" t="s">
         <v>998</v>
       </c>
@@ -63411,7 +63410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="1065" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1065" t="s">
         <v>998</v>
       </c>
@@ -63464,7 +63463,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="1066" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1066" t="s">
         <v>998</v>
       </c>
@@ -63517,7 +63516,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="1067" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1067" t="s">
         <v>998</v>
       </c>
@@ -63570,7 +63569,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1068" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1068" t="s">
         <v>998</v>
       </c>
@@ -63623,7 +63622,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="1069" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1069" t="s">
         <v>998</v>
       </c>
@@ -63676,7 +63675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1070" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1070" t="s">
         <v>998</v>
       </c>
@@ -63729,7 +63728,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="1071" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
         <v>998</v>
       </c>
@@ -63782,7 +63781,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="1072" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1072" t="s">
         <v>998</v>
       </c>
@@ -63835,7 +63834,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="1073" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
         <v>998</v>
       </c>
@@ -63888,7 +63887,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="1074" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1074" t="s">
         <v>998</v>
       </c>
@@ -63941,7 +63940,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="1075" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
         <v>1016</v>
       </c>
@@ -63994,7 +63993,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="1076" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1076" t="s">
         <v>1016</v>
       </c>
@@ -64047,7 +64046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="1077" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1077" t="s">
         <v>1016</v>
       </c>
@@ -64100,7 +64099,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1078" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1078" t="s">
         <v>1016</v>
       </c>
@@ -64153,7 +64152,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="1079" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
         <v>1016</v>
       </c>
@@ -64206,7 +64205,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="1080" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1080" t="s">
         <v>1016</v>
       </c>
@@ -64259,7 +64258,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="1081" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1081" t="s">
         <v>1016</v>
       </c>
@@ -64312,7 +64311,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="1082" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1082" t="s">
         <v>1016</v>
       </c>
@@ -64365,7 +64364,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="1083" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1083" t="s">
         <v>1016</v>
       </c>
@@ -64418,7 +64417,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="1084" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1084" t="s">
         <v>1016</v>
       </c>
@@ -64471,7 +64470,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1085" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1085" t="s">
         <v>1016</v>
       </c>
@@ -64524,7 +64523,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="1086" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1086" t="s">
         <v>1016</v>
       </c>
@@ -64577,7 +64576,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="1087" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1087" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1087" t="s">
         <v>1016</v>
       </c>
@@ -64630,7 +64629,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="1088" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1088" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1088" t="s">
         <v>1026</v>
       </c>
@@ -64683,7 +64682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1089" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1089" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1089" t="s">
         <v>1026</v>
       </c>
@@ -64736,7 +64735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1090" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1090" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1090" t="s">
         <v>1027</v>
       </c>
@@ -64789,7 +64788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1091" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1091" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1091" t="s">
         <v>1027</v>
       </c>
@@ -64842,7 +64841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1092" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1092" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1092" t="s">
         <v>1027</v>
       </c>
@@ -64895,7 +64894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1093" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1093" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1093" t="s">
         <v>1027</v>
       </c>
@@ -64948,7 +64947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1094" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1094" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1094" t="s">
         <v>1027</v>
       </c>
@@ -65001,7 +65000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1095" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1095" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
         <v>1027</v>
       </c>
@@ -65054,7 +65053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1096" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1096" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1096" t="s">
         <v>1027</v>
       </c>
@@ -65107,7 +65106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1097" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1097" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1097" t="s">
         <v>1027</v>
       </c>
@@ -65160,7 +65159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1098" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1098" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1098" t="s">
         <v>1027</v>
       </c>
@@ -65213,7 +65212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1099" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1099" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
         <v>1027</v>
       </c>
@@ -65266,7 +65265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1100" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1100" t="s">
         <v>1027</v>
       </c>
@@ -65319,7 +65318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1101" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
         <v>1037</v>
       </c>
@@ -65372,7 +65371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1102" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
         <v>1037</v>
       </c>
@@ -65425,7 +65424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1103" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
         <v>1037</v>
       </c>
@@ -65478,7 +65477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1104" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
         <v>1037</v>
       </c>
@@ -65531,7 +65530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1105" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1105" t="s">
         <v>1037</v>
       </c>
@@ -65584,7 +65583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1106" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
         <v>1037</v>
       </c>
@@ -65637,7 +65636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1107" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1107" t="s">
         <v>1037</v>
       </c>
@@ -65690,7 +65689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1108" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1108" t="s">
         <v>1037</v>
       </c>
@@ -65743,7 +65742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1109" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1109" t="s">
         <v>1045</v>
       </c>
@@ -65796,7 +65795,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="1110" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1110" t="s">
         <v>1045</v>
       </c>
@@ -65849,7 +65848,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="1111" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1111" t="s">
         <v>1045</v>
       </c>
@@ -65902,7 +65901,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1112" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1112" t="s">
         <v>1045</v>
       </c>
@@ -65955,7 +65954,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1113" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1113" t="s">
         <v>1048</v>
       </c>
@@ -66008,7 +66007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1114" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1114" t="s">
         <v>1048</v>
       </c>
@@ -66061,7 +66060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1115" t="s">
         <v>1048</v>
       </c>
@@ -66114,7 +66113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1116" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1116" t="s">
         <v>1048</v>
       </c>
@@ -66167,7 +66166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1117" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1117" t="s">
         <v>1048</v>
       </c>
@@ -66220,7 +66219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1118" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1118" t="s">
         <v>1048</v>
       </c>
@@ -66273,7 +66272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1119" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1119" t="s">
         <v>1055</v>
       </c>
@@ -66326,7 +66325,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="1120" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1120" t="s">
         <v>1055</v>
       </c>
@@ -66379,7 +66378,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="1121" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1121" t="s">
         <v>1055</v>
       </c>
@@ -66432,7 +66431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1122" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1122" t="s">
         <v>1055</v>
       </c>
@@ -66486,13 +66485,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1122" xr:uid="{25A0F293-E446-4517-8AD1-859953542050}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ANTIOQUIA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R1122" xr:uid="{25A0F293-E446-4517-8AD1-859953542050}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>